--- a/stockwellExample/RawInputData/A-Phase-3.xlsx
+++ b/stockwellExample/RawInputData/A-Phase-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdunne/Loughborough University/20TTD100 - CW Group A - Group A/Petri Nets/For Everyone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttcd\Documents\MATLAB\PetriNetSimulate\stockwellExample\RawInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF775C6B-52CC-2E44-BB59-B2FE47CBDA11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2BD5B1-C480-4055-A54A-9F8B1B338313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{E6BF008F-5C6C-4F49-B7F4-2457C7664101}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6BF008F-5C6C-4F49-B7F4-2457C7664101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Transition Numbers</t>
   </si>
   <si>
     <t>Place Numbers</t>
-  </si>
-  <si>
-    <t>Phase A-Matrix needn't consider the componenets - just the transitions IN the pase</t>
   </si>
   <si>
     <t>Componenets or subnet nodes</t>
@@ -119,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,7 +124,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -147,6 +144,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -166,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -464,18 +464,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB0E9C-5A6F-0C40-BF0F-F44C8FBE3B7B}">
   <dimension ref="E1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="2.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="25" width="3.83203125" customWidth="1"/>
+    <col min="1" max="5" width="2.875" customWidth="1"/>
+    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="7" max="25" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:22" ht="155" x14ac:dyDescent="0.2">
+    <row r="1" spans="5:22" ht="162.75" x14ac:dyDescent="0.25">
       <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
@@ -484,64 +484,58 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="N1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="5:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:22" x14ac:dyDescent="0.25">
       <c r="G2" s="2">
-        <v>144</v>
+        <v>301</v>
       </c>
       <c r="H2" s="2">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="I2" s="2">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="J2" s="2">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="K2" s="2">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="N2" s="6">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="O2" s="5">
-        <v>144</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="3" spans="5:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="G3" s="3">
         <v>-1</v>
       </c>
-      <c r="H3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="6">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="O3" s="5">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -551,33 +545,27 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="5:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="5:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="9"/>
       <c r="F4" s="1">
-        <v>89</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
         <v>-1</v>
       </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
         <v>1</v>
       </c>
+      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="6">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O4" s="5">
-        <v>147</v>
+        <v>303</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
@@ -587,26 +575,20 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="5:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="9"/>
       <c r="F5" s="1">
-        <v>90</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="3">
         <v>1</v>
       </c>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="6"/>
@@ -619,10 +601,19 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="8" spans="5:22" x14ac:dyDescent="0.2">
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="F6" s="10">
+        <v>304</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -635,6 +626,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EAC084835D24746A54539AB1A640141" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ebb060845e59801059c2b1bac358d5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db6488ae-1ae9-46d0-aa9c-9ac0f238754f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd10c274c4ff223c6b05d03a044ab7d" ns2:_="">
     <xsd:import namespace="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
@@ -806,12 +803,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -822,6 +813,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B3618C-B144-4565-9E3E-0F842207522B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B4A9ED-2FAA-4587-BE02-FA0D132995E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -839,22 +846,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B3618C-B144-4565-9E3E-0F842207522B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF387451-9C43-4878-8CD8-AC44434AD390}">
   <ds:schemaRefs>

--- a/stockwellExample/RawInputData/A-Phase-3.xlsx
+++ b/stockwellExample/RawInputData/A-Phase-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttcd\Documents\MATLAB\PetriNetSimulate\stockwellExample\RawInputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2BD5B1-C480-4055-A54A-9F8B1B338313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAEA549-2E36-4C24-B75F-40A1F9EE3A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E6BF008F-5C6C-4F49-B7F4-2457C7664101}"/>
   </bookViews>
@@ -143,10 +143,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,7 +465,7 @@
   <dimension ref="E1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -475,14 +475,14 @@
     <col min="7" max="25" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:22" ht="162.75" x14ac:dyDescent="0.25">
-      <c r="G1" s="8" t="s">
+    <row r="1" spans="5:22" ht="163.5" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
       <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
@@ -507,14 +507,14 @@
         <v>305</v>
       </c>
       <c r="N2" s="6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="O2" s="5">
         <v>301</v>
       </c>
     </row>
     <row r="3" spans="5:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="1">
@@ -530,9 +530,8 @@
         <v>1</v>
       </c>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
       <c r="N3" s="6">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="O3" s="5">
         <v>302</v>
@@ -546,7 +545,7 @@
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="5:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="1">
         <v>302</v>
       </c>
@@ -560,9 +559,8 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
       <c r="N4" s="6">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O4" s="5">
         <v>303</v>
@@ -576,7 +574,7 @@
       <c r="V4" s="3"/>
     </row>
     <row r="5" spans="5:22" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="1">
         <v>303</v>
       </c>
@@ -602,7 +600,7 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>304</v>
       </c>
       <c r="J6">
@@ -632,6 +630,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EAC084835D24746A54539AB1A640141" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ebb060845e59801059c2b1bac358d5a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="db6488ae-1ae9-46d0-aa9c-9ac0f238754f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cd10c274c4ff223c6b05d03a044ab7d" ns2:_="">
     <xsd:import namespace="db6488ae-1ae9-46d0-aa9c-9ac0f238754f"/>
@@ -803,15 +810,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B3618C-B144-4565-9E3E-0F842207522B}">
   <ds:schemaRefs>
@@ -829,6 +827,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF387451-9C43-4878-8CD8-AC44434AD390}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B4A9ED-2FAA-4587-BE02-FA0D132995E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -844,12 +850,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF387451-9C43-4878-8CD8-AC44434AD390}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>